--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A643171-3B79-4363-A02F-5AF53CF8F3CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DA3A9-9B0B-4F1F-AFC4-462FE779B4AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
